--- a/hardware/preamp/preamp_bom.xlsx
+++ b/hardware/preamp/preamp_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/dev/cycfi/xr_spectra/hardware/preamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E62987-E69A-5746-9FA2-FBA29C2E7390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECACEF3A-7F81-DB42-AFD0-687679DA19BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19640" windowHeight="12680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="460" windowWidth="22460" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preamp" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{033D256F-5B24-654A-85CE-A92F1F999308}" name="preamp" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/joel/dev/cycfi/xr_spectra/hardware/preamp/preamp.csv" tab="0" semicolon="1">
+    <textPr sourceFile="/Users/joel/dev/cycfi/xr_spectra/hardware/preamp/preamp.csv" tab="0" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
